--- a/Analyzer Results/RESULTS_MTT_MERGED_EXP.xlsx
+++ b/Analyzer Results/RESULTS_MTT_MERGED_EXP.xlsx
@@ -511,16 +511,16 @@
         <v>17.95</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03761463013153493</v>
+        <v>50.15000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03316243665862321</v>
+        <v>12.84536111111111</v>
       </c>
       <c r="I2" t="n">
-        <v>0.68439540855072</v>
+        <v>153.9534722222222</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03418349053994985</v>
+        <v>5027.915722222222</v>
       </c>
     </row>
     <row r="3">
@@ -549,16 +549,16 @@
         <v>19.03518518518518</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2135635078136274</v>
+        <v>81.98425925925926</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2345455001680395</v>
+        <v>22.06077777777778</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7095568336588505</v>
+        <v>156.9860740740741</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3038014302608125</v>
+        <v>9333.02887037037</v>
       </c>
     </row>
     <row r="4">
@@ -587,16 +587,16 @@
         <v>20.73703703703704</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1111817935626494</v>
+        <v>66.86018518518519</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1542018586791564</v>
+        <v>19.27598148148148</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9294601783591471</v>
+        <v>199.1854907407407</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2569942135155599</v>
+        <v>8785.400435185185</v>
       </c>
     </row>
     <row r="5">
@@ -625,16 +625,16 @@
         <v>19.37777777777778</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1131738728374047</v>
+        <v>67.20555555555556</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1286453392750628</v>
+        <v>18.26519444444445</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7544841963192752</v>
+        <v>162.8410555555556</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1581460646136919</v>
+        <v>7508.073027777778</v>
       </c>
     </row>
     <row r="6">
@@ -663,16 +663,16 @@
         <v>20.71851851851852</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4825544500516983</v>
+        <v>114.0638888888889</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5907441449966598</v>
+        <v>32.93819444444445</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8419311113801342</v>
+        <v>176.8305740740741</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7290156223413903</v>
+        <v>14621.79834259259</v>
       </c>
     </row>
     <row r="7">
@@ -701,16 +701,16 @@
         <v>21.31111111111111</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3547470795517786</v>
+        <v>99.12037037037038</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3948555995135078</v>
+        <v>26.91130555555556</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6041931713650945</v>
+        <v>145.1042222222222</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4359591479549684</v>
+        <v>10822.44786111111</v>
       </c>
     </row>
     <row r="8">
@@ -739,16 +739,16 @@
         <v>18.93888888888889</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5619221175794011</v>
+        <v>123.8351851851852</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6118192077144605</v>
+        <v>33.65185185185185</v>
       </c>
       <c r="I8" t="n">
-        <v>0.657364239856876</v>
+        <v>150.8492407407408</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6695764585266698</v>
+        <v>13712.78072222222</v>
       </c>
     </row>
     <row r="9">
@@ -777,16 +777,16 @@
         <v>22.17222222222222</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9836104595315516</v>
+        <v>251.6518518518519</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9904273456967695</v>
+        <v>68.40933333333334</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7663367622745515</v>
+        <v>164.5025370370371</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9945647760130473</v>
+        <v>27733.00499074074</v>
       </c>
     </row>
     <row r="10">
@@ -815,16 +815,16 @@
         <v>19.54444444444444</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6783275848832641</v>
+        <v>139.937962962963</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6206725233717312</v>
+        <v>33.95793518518519</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1412765927149308</v>
+        <v>97.69907407407408</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5181782254431783</v>
+        <v>11767.41068518518</v>
       </c>
     </row>
     <row r="11">
@@ -853,16 +853,16 @@
         <v>22.07592592592593</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7001936252626884</v>
+        <v>143.3435185185185</v>
       </c>
       <c r="H11" t="n">
-        <v>0.740305531721995</v>
+        <v>38.61753703703704</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5315012933691664</v>
+        <v>137.7861018518519</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7049683468306989</v>
+        <v>14239.41121296296</v>
       </c>
     </row>
     <row r="12">
@@ -891,16 +891,16 @@
         <v>21.70555555555556</v>
       </c>
       <c r="G12" t="n">
-        <v>0.953094841362125</v>
+        <v>216.7611111111111</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9125733949032593</v>
+        <v>49.80016666666667</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0170666299870166</v>
+        <v>69.07636111111111</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7933353895429266</v>
+        <v>15780.26272222222</v>
       </c>
     </row>
     <row r="13">
@@ -929,16 +929,16 @@
         <v>20.11666666666667</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8868654338144349</v>
+        <v>184.6898148148148</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9187523602984907</v>
+        <v>50.48237037037037</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7434585958452773</v>
+        <v>161.3433888888889</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9394544094315378</v>
+        <v>20323.01669444445</v>
       </c>
     </row>
     <row r="14">
@@ -967,16 +967,16 @@
         <v>20.38148148148148</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4133160033973711</v>
+        <v>105.9212962962963</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3782640031105674</v>
+        <v>26.42299074074074</v>
       </c>
       <c r="I14" t="n">
-        <v>0.312206790056562</v>
+        <v>116.863537037037</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2956165514027094</v>
+        <v>9238.739981481482</v>
       </c>
     </row>
     <row r="15">
@@ -1005,16 +1005,16 @@
         <v>14.90555555555556</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3551847499769891</v>
+        <v>99.17129629629629</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2861882825447443</v>
+        <v>23.67728703703704</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3142298996144354</v>
+        <v>117.0621759259259</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2613319491990383</v>
+        <v>8837.139092592592</v>
       </c>
     </row>
     <row r="16">
@@ -1043,16 +1043,16 @@
         <v>18.92592592592593</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7457036260650682</v>
+        <v>151.0166666666667</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5025301757512871</v>
+        <v>30.1268425925926</v>
       </c>
       <c r="I16" t="n">
-        <v>0.006770584344856395</v>
+        <v>60.95931481481481</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3012250047704676</v>
+        <v>9303.403685185185</v>
       </c>
     </row>
     <row r="17">
@@ -1081,16 +1081,16 @@
         <v>18.72777777777778</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1459353525398111</v>
+        <v>72.50555555555555</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1347356956684928</v>
+        <v>18.51413888888889</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6809520156950204</v>
+        <v>153.5498055555555</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1390801748727884</v>
+        <v>7226.979</v>
       </c>
     </row>
     <row r="18">
@@ -1119,16 +1119,16 @@
         <v>22.36111111111111</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5550929987840959</v>
+        <v>122.9666666666667</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6476911306101647</v>
+        <v>34.91819444444445</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6000108335783938</v>
+        <v>144.6688333333333</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7161780220801508</v>
+        <v>14414.89663888889</v>
       </c>
     </row>
     <row r="19">
@@ -1157,16 +1157,16 @@
         <v>20.13703703703704</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5284133263783335</v>
+        <v>119.6296296296296</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4899671280956511</v>
+        <v>29.74342592592593</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3572481194181703</v>
+        <v>121.2216944444444</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4059872875170014</v>
+        <v>10485.57519444444</v>
       </c>
     </row>
   </sheetData>

--- a/Analyzer Results/RESULTS_MTT_MERGED_EXP.xlsx
+++ b/Analyzer Results/RESULTS_MTT_MERGED_EXP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,17 +471,32 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>PTPA</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>PTTA</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>RMS</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>tau</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>AUC</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>percentPPI</t>
         </is>
       </c>
     </row>
@@ -514,13 +529,22 @@
         <v>50.15000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>12.84536111111111</v>
+        <v>50.56438888888889</v>
       </c>
       <c r="I2" t="n">
+        <v>45.34330555555555</v>
+      </c>
+      <c r="J2" t="n">
+        <v>19.5305</v>
+      </c>
+      <c r="K2" t="n">
         <v>153.9534722222222</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>5027.915722222222</v>
+      </c>
+      <c r="M2" t="n">
+        <v>8.425882352941176</v>
       </c>
     </row>
     <row r="3">
@@ -552,13 +576,22 @@
         <v>81.98425925925926</v>
       </c>
       <c r="H3" t="n">
-        <v>22.06077777777778</v>
+        <v>82.04214814814814</v>
       </c>
       <c r="I3" t="n">
+        <v>73.44992592592592</v>
+      </c>
+      <c r="J3" t="n">
+        <v>32.85005555555556</v>
+      </c>
+      <c r="K3" t="n">
         <v>156.9860740740741</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>9333.02887037037</v>
+      </c>
+      <c r="M3" t="n">
+        <v>8.425882352941176</v>
       </c>
     </row>
     <row r="4">
@@ -581,22 +614,31 @@
         <v>11.68333333333333</v>
       </c>
       <c r="E4" t="n">
-        <v>32.42037037037037</v>
+        <v>31.48703703703704</v>
       </c>
       <c r="F4" t="n">
-        <v>20.73703703703704</v>
+        <v>19.8037037037037</v>
       </c>
       <c r="G4" t="n">
-        <v>66.86018518518519</v>
+        <v>66.84907407407407</v>
       </c>
       <c r="H4" t="n">
-        <v>19.27598148148148</v>
+        <v>67.10026851851852</v>
       </c>
       <c r="I4" t="n">
-        <v>199.1854907407407</v>
+        <v>60.08478703703703</v>
       </c>
       <c r="J4" t="n">
-        <v>8785.400435185185</v>
+        <v>27.93414814814815</v>
+      </c>
+      <c r="K4" t="n">
+        <v>204.5682685185185</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8798.300546296297</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8.425882352941176</v>
       </c>
     </row>
     <row r="5">
@@ -628,13 +670,22 @@
         <v>67.20555555555556</v>
       </c>
       <c r="H5" t="n">
-        <v>18.26519444444445</v>
+        <v>67.55897222222222</v>
       </c>
       <c r="I5" t="n">
+        <v>59.03819444444444</v>
+      </c>
+      <c r="J5" t="n">
+        <v>27.45466666666666</v>
+      </c>
+      <c r="K5" t="n">
         <v>162.8410555555556</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>7508.073027777778</v>
+      </c>
+      <c r="M5" t="n">
+        <v>6.538235294117647</v>
       </c>
     </row>
     <row r="6">
@@ -666,13 +717,22 @@
         <v>114.0638888888889</v>
       </c>
       <c r="H6" t="n">
-        <v>32.93819444444445</v>
+        <v>114.2151944444444</v>
       </c>
       <c r="I6" t="n">
+        <v>100.4224537037037</v>
+      </c>
+      <c r="J6" t="n">
+        <v>48.37812962962963</v>
+      </c>
+      <c r="K6" t="n">
         <v>176.8305740740741</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>14621.79834259259</v>
+      </c>
+      <c r="M6" t="n">
+        <v>6.538235294117647</v>
       </c>
     </row>
     <row r="7">
@@ -704,13 +764,22 @@
         <v>99.12037037037038</v>
       </c>
       <c r="H7" t="n">
-        <v>26.91130555555556</v>
+        <v>99.34892592592593</v>
       </c>
       <c r="I7" t="n">
+        <v>88.98518518518519</v>
+      </c>
+      <c r="J7" t="n">
+        <v>40.64285185185185</v>
+      </c>
+      <c r="K7" t="n">
         <v>145.1042222222222</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>10822.44786111111</v>
+      </c>
+      <c r="M7" t="n">
+        <v>6.538235294117647</v>
       </c>
     </row>
     <row r="8">
@@ -742,13 +811,22 @@
         <v>123.8351851851852</v>
       </c>
       <c r="H8" t="n">
-        <v>33.65185185185185</v>
+        <v>123.5877037037037</v>
       </c>
       <c r="I8" t="n">
+        <v>113.6677407407407</v>
+      </c>
+      <c r="J8" t="n">
+        <v>50.61343518518518</v>
+      </c>
+      <c r="K8" t="n">
         <v>150.8492407407408</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>13712.78072222222</v>
+      </c>
+      <c r="M8" t="n">
+        <v>6.354117647058823</v>
       </c>
     </row>
     <row r="9">
@@ -780,13 +858,22 @@
         <v>251.6518518518519</v>
       </c>
       <c r="H9" t="n">
-        <v>68.40933333333334</v>
+        <v>250.5898148148148</v>
       </c>
       <c r="I9" t="n">
+        <v>231.0211111111111</v>
+      </c>
+      <c r="J9" t="n">
+        <v>102.1112037037037</v>
+      </c>
+      <c r="K9" t="n">
         <v>164.5025370370371</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>27733.00499074074</v>
+      </c>
+      <c r="M9" t="n">
+        <v>6.354117647058823</v>
       </c>
     </row>
     <row r="10">
@@ -818,13 +905,22 @@
         <v>139.937962962963</v>
       </c>
       <c r="H10" t="n">
-        <v>33.95793518518519</v>
+        <v>139.7641111111111</v>
       </c>
       <c r="I10" t="n">
+        <v>127.7126666666667</v>
+      </c>
+      <c r="J10" t="n">
+        <v>52.51946296296297</v>
+      </c>
+      <c r="K10" t="n">
         <v>97.69907407407408</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>11767.41068518518</v>
+      </c>
+      <c r="M10" t="n">
+        <v>6.354117647058823</v>
       </c>
     </row>
     <row r="11">
@@ -856,13 +952,22 @@
         <v>143.3435185185185</v>
       </c>
       <c r="H11" t="n">
-        <v>38.61753703703704</v>
+        <v>141.8036759259259</v>
       </c>
       <c r="I11" t="n">
+        <v>125.5410925925926</v>
+      </c>
+      <c r="J11" t="n">
+        <v>59.18602777777778</v>
+      </c>
+      <c r="K11" t="n">
         <v>137.7861018518519</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>14239.41121296296</v>
+      </c>
+      <c r="M11" t="n">
+        <v>11.51588235294118</v>
       </c>
     </row>
     <row r="12">
@@ -894,13 +999,22 @@
         <v>216.7611111111111</v>
       </c>
       <c r="H12" t="n">
-        <v>49.80016666666667</v>
+        <v>215.9999722222222</v>
       </c>
       <c r="I12" t="n">
+        <v>189.55775</v>
+      </c>
+      <c r="J12" t="n">
+        <v>77.4393888888889</v>
+      </c>
+      <c r="K12" t="n">
         <v>69.07636111111111</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>15780.26272222222</v>
+      </c>
+      <c r="M12" t="n">
+        <v>11.51588235294118</v>
       </c>
     </row>
     <row r="13">
@@ -932,13 +1046,22 @@
         <v>184.6898148148148</v>
       </c>
       <c r="H13" t="n">
-        <v>50.48237037037037</v>
+        <v>184.6941481481481</v>
       </c>
       <c r="I13" t="n">
+        <v>164.7086481481482</v>
+      </c>
+      <c r="J13" t="n">
+        <v>76.14412962962963</v>
+      </c>
+      <c r="K13" t="n">
         <v>161.3433888888889</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>20323.01669444445</v>
+      </c>
+      <c r="M13" t="n">
+        <v>11.51588235294118</v>
       </c>
     </row>
     <row r="14">
@@ -970,13 +1093,22 @@
         <v>105.9212962962963</v>
       </c>
       <c r="H14" t="n">
-        <v>26.42299074074074</v>
+        <v>106.0883518518519</v>
       </c>
       <c r="I14" t="n">
+        <v>97.25192592592593</v>
+      </c>
+      <c r="J14" t="n">
+        <v>40.78643518518518</v>
+      </c>
+      <c r="K14" t="n">
         <v>116.863537037037</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>9238.739981481482</v>
+      </c>
+      <c r="M14" t="n">
+        <v>9.131764705882354</v>
       </c>
     </row>
     <row r="15">
@@ -1008,13 +1140,22 @@
         <v>99.17129629629629</v>
       </c>
       <c r="H15" t="n">
-        <v>23.67728703703704</v>
+        <v>99.44838888888889</v>
       </c>
       <c r="I15" t="n">
+        <v>90.20940740740741</v>
+      </c>
+      <c r="J15" t="n">
+        <v>36.2442037037037</v>
+      </c>
+      <c r="K15" t="n">
         <v>117.0621759259259</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>8837.139092592592</v>
+      </c>
+      <c r="M15" t="n">
+        <v>9.131764705882354</v>
       </c>
     </row>
     <row r="16">
@@ -1046,13 +1187,22 @@
         <v>151.0166666666667</v>
       </c>
       <c r="H16" t="n">
-        <v>30.1268425925926</v>
+        <v>151.2216944444444</v>
       </c>
       <c r="I16" t="n">
+        <v>139.4710925925926</v>
+      </c>
+      <c r="J16" t="n">
+        <v>46.34986111111111</v>
+      </c>
+      <c r="K16" t="n">
         <v>60.95931481481481</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>9303.403685185185</v>
+      </c>
+      <c r="M16" t="n">
+        <v>9.131764705882354</v>
       </c>
     </row>
     <row r="17">
@@ -1084,13 +1234,22 @@
         <v>72.50555555555555</v>
       </c>
       <c r="H17" t="n">
-        <v>18.51413888888889</v>
+        <v>72.76869444444444</v>
       </c>
       <c r="I17" t="n">
+        <v>66.23947222222222</v>
+      </c>
+      <c r="J17" t="n">
+        <v>28.09772222222222</v>
+      </c>
+      <c r="K17" t="n">
         <v>153.5498055555555</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>7226.979</v>
+      </c>
+      <c r="M17" t="n">
+        <v>12.44411764705882</v>
       </c>
     </row>
     <row r="18">
@@ -1122,13 +1281,22 @@
         <v>122.9666666666667</v>
       </c>
       <c r="H18" t="n">
-        <v>34.91819444444445</v>
+        <v>122.2441666666667</v>
       </c>
       <c r="I18" t="n">
+        <v>111.3176666666667</v>
+      </c>
+      <c r="J18" t="n">
+        <v>52.30216666666666</v>
+      </c>
+      <c r="K18" t="n">
         <v>144.6688333333333</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>14414.89663888889</v>
+      </c>
+      <c r="M18" t="n">
+        <v>12.44411764705882</v>
       </c>
     </row>
     <row r="19">
@@ -1160,13 +1328,22 @@
         <v>119.6296296296296</v>
       </c>
       <c r="H19" t="n">
-        <v>29.74342592592593</v>
+        <v>119.4466851851852</v>
       </c>
       <c r="I19" t="n">
+        <v>109.3258981481482</v>
+      </c>
+      <c r="J19" t="n">
+        <v>46.04016666666666</v>
+      </c>
+      <c r="K19" t="n">
         <v>121.2216944444444</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>10485.57519444444</v>
+      </c>
+      <c r="M19" t="n">
+        <v>12.44411764705882</v>
       </c>
     </row>
   </sheetData>

--- a/Analyzer Results/RESULTS_MTT_MERGED_EXP.xlsx
+++ b/Analyzer Results/RESULTS_MTT_MERGED_EXP.xlsx
@@ -517,31 +517,31 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12.02222222222222</v>
+        <v>12.03148148148148</v>
       </c>
       <c r="E2" t="n">
-        <v>29.97222222222222</v>
+        <v>29.98703703703704</v>
       </c>
       <c r="F2" t="n">
-        <v>17.95</v>
+        <v>17.95555555555556</v>
       </c>
       <c r="G2" t="n">
-        <v>50.15000000000001</v>
+        <v>50.33703703703704</v>
       </c>
       <c r="H2" t="n">
-        <v>50.56438888888889</v>
+        <v>50.74924074074074</v>
       </c>
       <c r="I2" t="n">
-        <v>45.34330555555555</v>
+        <v>45.72635185185185</v>
       </c>
       <c r="J2" t="n">
-        <v>19.5305</v>
+        <v>19.58528703703704</v>
       </c>
       <c r="K2" t="n">
-        <v>153.9534722222222</v>
+        <v>153.2409907407407</v>
       </c>
       <c r="L2" t="n">
-        <v>5027.915722222222</v>
+        <v>5032.431675925926</v>
       </c>
       <c r="M2" t="n">
         <v>8.425882352941176</v>
@@ -564,31 +564,31 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>11.3037037037037</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="E3" t="n">
-        <v>30.33888888888889</v>
+        <v>30.35925925925926</v>
       </c>
       <c r="F3" t="n">
-        <v>19.03518518518518</v>
+        <v>19.02592592592593</v>
       </c>
       <c r="G3" t="n">
-        <v>81.98425925925926</v>
+        <v>82.46851851851852</v>
       </c>
       <c r="H3" t="n">
-        <v>82.04214814814814</v>
+        <v>82.53874999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>73.44992592592592</v>
+        <v>73.73722222222221</v>
       </c>
       <c r="J3" t="n">
-        <v>32.85005555555556</v>
+        <v>33.00652777777778</v>
       </c>
       <c r="K3" t="n">
-        <v>156.9860740740741</v>
+        <v>155.0134351851852</v>
       </c>
       <c r="L3" t="n">
-        <v>9333.02887037037</v>
+        <v>9357.631583333334</v>
       </c>
       <c r="M3" t="n">
         <v>8.425882352941176</v>
@@ -611,31 +611,31 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>11.68333333333333</v>
+        <v>11.67592592592593</v>
       </c>
       <c r="E4" t="n">
-        <v>31.48703703703704</v>
+        <v>31.34444444444445</v>
       </c>
       <c r="F4" t="n">
-        <v>19.8037037037037</v>
+        <v>19.66851851851852</v>
       </c>
       <c r="G4" t="n">
-        <v>66.84907407407407</v>
+        <v>66.48148148148148</v>
       </c>
       <c r="H4" t="n">
-        <v>67.10026851851852</v>
+        <v>66.71621296296297</v>
       </c>
       <c r="I4" t="n">
-        <v>60.08478703703703</v>
+        <v>59.56551851851852</v>
       </c>
       <c r="J4" t="n">
-        <v>27.93414814814815</v>
+        <v>27.8747962962963</v>
       </c>
       <c r="K4" t="n">
-        <v>204.5682685185185</v>
+        <v>204.5309351851852</v>
       </c>
       <c r="L4" t="n">
-        <v>8798.300546296297</v>
+        <v>8805.802685185185</v>
       </c>
       <c r="M4" t="n">
         <v>8.425882352941176</v>
@@ -658,31 +658,31 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>11.27777777777778</v>
+        <v>11.27407407407407</v>
       </c>
       <c r="E5" t="n">
-        <v>30.65555555555555</v>
+        <v>30.62962962962963</v>
       </c>
       <c r="F5" t="n">
-        <v>19.37777777777778</v>
+        <v>19.35555555555555</v>
       </c>
       <c r="G5" t="n">
-        <v>67.20555555555556</v>
+        <v>67.47222222222223</v>
       </c>
       <c r="H5" t="n">
-        <v>67.55897222222222</v>
+        <v>67.80563888888888</v>
       </c>
       <c r="I5" t="n">
-        <v>59.03819444444444</v>
+        <v>59.19708333333332</v>
       </c>
       <c r="J5" t="n">
-        <v>27.45466666666666</v>
+        <v>27.705</v>
       </c>
       <c r="K5" t="n">
-        <v>162.8410555555556</v>
+        <v>163.8527962962963</v>
       </c>
       <c r="L5" t="n">
-        <v>7508.073027777778</v>
+        <v>7612.583185185185</v>
       </c>
       <c r="M5" t="n">
         <v>6.538235294117647</v>
@@ -705,31 +705,31 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9.459259259259261</v>
+        <v>9.405555555555557</v>
       </c>
       <c r="E6" t="n">
-        <v>30.17777777777778</v>
+        <v>30.18333333333333</v>
       </c>
       <c r="F6" t="n">
-        <v>20.71851851851852</v>
+        <v>20.77777777777778</v>
       </c>
       <c r="G6" t="n">
-        <v>114.0638888888889</v>
+        <v>114.6388888888889</v>
       </c>
       <c r="H6" t="n">
-        <v>114.2151944444444</v>
+        <v>114.7929444444445</v>
       </c>
       <c r="I6" t="n">
-        <v>100.4224537037037</v>
+        <v>100.9899722222222</v>
       </c>
       <c r="J6" t="n">
-        <v>48.37812962962963</v>
+        <v>48.72497222222222</v>
       </c>
       <c r="K6" t="n">
-        <v>176.8305740740741</v>
+        <v>177.2313055555556</v>
       </c>
       <c r="L6" t="n">
-        <v>14621.79834259259</v>
+        <v>14732.97852777778</v>
       </c>
       <c r="M6" t="n">
         <v>6.538235294117647</v>
@@ -752,31 +752,31 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10.32407407407407</v>
+        <v>10.28333333333333</v>
       </c>
       <c r="E7" t="n">
-        <v>31.63518518518518</v>
+        <v>31.44259259259259</v>
       </c>
       <c r="F7" t="n">
-        <v>21.31111111111111</v>
+        <v>21.15925925925926</v>
       </c>
       <c r="G7" t="n">
-        <v>99.12037037037038</v>
+        <v>97.59537037037038</v>
       </c>
       <c r="H7" t="n">
-        <v>99.34892592592593</v>
+        <v>97.83666666666666</v>
       </c>
       <c r="I7" t="n">
-        <v>88.98518518518519</v>
+        <v>87.62231481481481</v>
       </c>
       <c r="J7" t="n">
-        <v>40.64285185185185</v>
+        <v>39.82542592592593</v>
       </c>
       <c r="K7" t="n">
-        <v>145.1042222222222</v>
+        <v>143.6508148148148</v>
       </c>
       <c r="L7" t="n">
-        <v>10822.44786111111</v>
+        <v>10593.61003703704</v>
       </c>
       <c r="M7" t="n">
         <v>6.538235294117647</v>
@@ -799,31 +799,31 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>11.07222222222222</v>
+        <v>11.13333333333333</v>
       </c>
       <c r="E8" t="n">
-        <v>30.01111111111111</v>
+        <v>30.10555555555555</v>
       </c>
       <c r="F8" t="n">
-        <v>18.93888888888889</v>
+        <v>18.97222222222222</v>
       </c>
       <c r="G8" t="n">
-        <v>123.8351851851852</v>
+        <v>121.1759259259259</v>
       </c>
       <c r="H8" t="n">
-        <v>123.5877037037037</v>
+        <v>120.9157592592592</v>
       </c>
       <c r="I8" t="n">
-        <v>113.6677407407407</v>
+        <v>111.5155925925926</v>
       </c>
       <c r="J8" t="n">
-        <v>50.61343518518518</v>
+        <v>49.48687037037038</v>
       </c>
       <c r="K8" t="n">
-        <v>150.8492407407408</v>
+        <v>152.8018148148148</v>
       </c>
       <c r="L8" t="n">
-        <v>13712.78072222222</v>
+        <v>13441.77800925926</v>
       </c>
       <c r="M8" t="n">
         <v>6.354117647058823</v>
@@ -849,28 +849,28 @@
         <v>9.966666666666667</v>
       </c>
       <c r="E9" t="n">
-        <v>32.13888888888889</v>
+        <v>32.30555555555556</v>
       </c>
       <c r="F9" t="n">
-        <v>22.17222222222222</v>
+        <v>22.33888888888889</v>
       </c>
       <c r="G9" t="n">
-        <v>251.6518518518519</v>
+        <v>250.0083333333333</v>
       </c>
       <c r="H9" t="n">
-        <v>250.5898148148148</v>
+        <v>248.9875462962963</v>
       </c>
       <c r="I9" t="n">
-        <v>231.0211111111111</v>
+        <v>228.5743518518518</v>
       </c>
       <c r="J9" t="n">
-        <v>102.1112037037037</v>
+        <v>101.9356481481481</v>
       </c>
       <c r="K9" t="n">
-        <v>164.5025370370371</v>
+        <v>167.1688796296296</v>
       </c>
       <c r="L9" t="n">
-        <v>27733.00499074074</v>
+        <v>27749.15272222222</v>
       </c>
       <c r="M9" t="n">
         <v>6.354117647058823</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10.87592592592592</v>
+        <v>11.01481481481481</v>
       </c>
       <c r="E10" t="n">
-        <v>30.42037037037037</v>
+        <v>30.44814814814815</v>
       </c>
       <c r="F10" t="n">
-        <v>19.54444444444444</v>
+        <v>19.43333333333333</v>
       </c>
       <c r="G10" t="n">
-        <v>139.937962962963</v>
+        <v>137.9518518518518</v>
       </c>
       <c r="H10" t="n">
-        <v>139.7641111111111</v>
+        <v>137.780037037037</v>
       </c>
       <c r="I10" t="n">
-        <v>127.7126666666667</v>
+        <v>126.3372037037037</v>
       </c>
       <c r="J10" t="n">
-        <v>52.51946296296297</v>
+        <v>51.48825925925926</v>
       </c>
       <c r="K10" t="n">
-        <v>97.69907407407408</v>
+        <v>95.43833333333333</v>
       </c>
       <c r="L10" t="n">
-        <v>11767.41068518518</v>
+        <v>11409.86925</v>
       </c>
       <c r="M10" t="n">
         <v>6.354117647058823</v>
@@ -940,31 +940,31 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>10.13888888888889</v>
+        <v>10.13148148148148</v>
       </c>
       <c r="E11" t="n">
-        <v>32.21481481481482</v>
+        <v>31.59259259259259</v>
       </c>
       <c r="F11" t="n">
-        <v>22.07592592592593</v>
+        <v>21.46111111111111</v>
       </c>
       <c r="G11" t="n">
-        <v>143.3435185185185</v>
+        <v>144.2157407407407</v>
       </c>
       <c r="H11" t="n">
-        <v>141.8036759259259</v>
+        <v>142.5429814814815</v>
       </c>
       <c r="I11" t="n">
-        <v>125.5410925925926</v>
+        <v>125.2787685185185</v>
       </c>
       <c r="J11" t="n">
-        <v>59.18602777777778</v>
+        <v>59.60402777777777</v>
       </c>
       <c r="K11" t="n">
-        <v>137.7861018518519</v>
+        <v>138.6452222222222</v>
       </c>
       <c r="L11" t="n">
-        <v>14239.41121296296</v>
+        <v>14436.53362037037</v>
       </c>
       <c r="M11" t="n">
         <v>11.51588235294118</v>
@@ -987,31 +987,31 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10.05555555555556</v>
+        <v>10.03703703703704</v>
       </c>
       <c r="E12" t="n">
-        <v>31.76111111111111</v>
+        <v>31.26111111111111</v>
       </c>
       <c r="F12" t="n">
-        <v>21.70555555555556</v>
+        <v>21.22407407407407</v>
       </c>
       <c r="G12" t="n">
-        <v>216.7611111111111</v>
+        <v>215.7111111111111</v>
       </c>
       <c r="H12" t="n">
-        <v>215.9999722222222</v>
+        <v>215.2489537037037</v>
       </c>
       <c r="I12" t="n">
-        <v>189.55775</v>
+        <v>188.1889259259259</v>
       </c>
       <c r="J12" t="n">
-        <v>77.4393888888889</v>
+        <v>76.57612037037036</v>
       </c>
       <c r="K12" t="n">
-        <v>69.07636111111111</v>
+        <v>68.41792592592593</v>
       </c>
       <c r="L12" t="n">
-        <v>15780.26272222222</v>
+        <v>15657.55008333333</v>
       </c>
       <c r="M12" t="n">
         <v>11.51588235294118</v>
@@ -1037,28 +1037,28 @@
         <v>10.04444444444444</v>
       </c>
       <c r="E13" t="n">
-        <v>30.16111111111111</v>
+        <v>30.05925925925926</v>
       </c>
       <c r="F13" t="n">
-        <v>20.11666666666667</v>
+        <v>20.01481481481481</v>
       </c>
       <c r="G13" t="n">
-        <v>184.6898148148148</v>
+        <v>185.3935185185185</v>
       </c>
       <c r="H13" t="n">
-        <v>184.6941481481481</v>
+        <v>185.4082685185185</v>
       </c>
       <c r="I13" t="n">
-        <v>164.7086481481482</v>
+        <v>165.373</v>
       </c>
       <c r="J13" t="n">
-        <v>76.14412962962963</v>
+        <v>76.59121296296297</v>
       </c>
       <c r="K13" t="n">
-        <v>161.3433888888889</v>
+        <v>163.3383888888889</v>
       </c>
       <c r="L13" t="n">
-        <v>20323.01669444445</v>
+        <v>20525.99299074074</v>
       </c>
       <c r="M13" t="n">
         <v>11.51588235294118</v>
@@ -1081,31 +1081,31 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10.36666666666667</v>
+        <v>10.37777777777778</v>
       </c>
       <c r="E14" t="n">
-        <v>30.74814814814815</v>
+        <v>30.44259259259259</v>
       </c>
       <c r="F14" t="n">
-        <v>20.38148148148148</v>
+        <v>20.06481481481482</v>
       </c>
       <c r="G14" t="n">
-        <v>105.9212962962963</v>
+        <v>104.7324074074074</v>
       </c>
       <c r="H14" t="n">
-        <v>106.0883518518519</v>
+        <v>104.9064351851852</v>
       </c>
       <c r="I14" t="n">
-        <v>97.25192592592593</v>
+        <v>96.13342592592592</v>
       </c>
       <c r="J14" t="n">
-        <v>40.78643518518518</v>
+        <v>40.19326851851852</v>
       </c>
       <c r="K14" t="n">
-        <v>116.863537037037</v>
+        <v>117.0173981481482</v>
       </c>
       <c r="L14" t="n">
-        <v>9238.739981481482</v>
+        <v>9157.268592592593</v>
       </c>
       <c r="M14" t="n">
         <v>9.131764705882354</v>
@@ -1131,28 +1131,28 @@
         <v>11.23148148148148</v>
       </c>
       <c r="E15" t="n">
-        <v>26.13703703703704</v>
+        <v>26.05185185185185</v>
       </c>
       <c r="F15" t="n">
-        <v>14.90555555555556</v>
+        <v>14.82037037037037</v>
       </c>
       <c r="G15" t="n">
-        <v>99.17129629629629</v>
+        <v>96.87777777777778</v>
       </c>
       <c r="H15" t="n">
-        <v>99.44838888888889</v>
+        <v>97.15475925925927</v>
       </c>
       <c r="I15" t="n">
-        <v>90.20940740740741</v>
+        <v>88.11875000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>36.2442037037037</v>
+        <v>35.69441666666667</v>
       </c>
       <c r="K15" t="n">
-        <v>117.0621759259259</v>
+        <v>119.8397685185185</v>
       </c>
       <c r="L15" t="n">
-        <v>8837.139092592592</v>
+        <v>8859.991944444446</v>
       </c>
       <c r="M15" t="n">
         <v>9.131764705882354</v>
@@ -1175,31 +1175,31 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>10</v>
+        <v>9.994444444444445</v>
       </c>
       <c r="E16" t="n">
-        <v>28.92592592592592</v>
+        <v>28.71111111111111</v>
       </c>
       <c r="F16" t="n">
-        <v>18.92592592592593</v>
+        <v>18.71666666666667</v>
       </c>
       <c r="G16" t="n">
-        <v>151.0166666666667</v>
+        <v>148.0712962962963</v>
       </c>
       <c r="H16" t="n">
-        <v>151.2216944444444</v>
+        <v>148.2752222222222</v>
       </c>
       <c r="I16" t="n">
-        <v>139.4710925925926</v>
+        <v>136.7262222222222</v>
       </c>
       <c r="J16" t="n">
-        <v>46.34986111111111</v>
+        <v>45.42023148148148</v>
       </c>
       <c r="K16" t="n">
-        <v>60.95931481481481</v>
+        <v>62.91313888888889</v>
       </c>
       <c r="L16" t="n">
-        <v>9303.403685185185</v>
+        <v>9208.361268518518</v>
       </c>
       <c r="M16" t="n">
         <v>9.131764705882354</v>
@@ -1222,31 +1222,31 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>11.41666666666667</v>
+        <v>11.45</v>
       </c>
       <c r="E17" t="n">
-        <v>30.14444444444445</v>
+        <v>30.15</v>
       </c>
       <c r="F17" t="n">
-        <v>18.72777777777778</v>
+        <v>18.7</v>
       </c>
       <c r="G17" t="n">
-        <v>72.50555555555555</v>
+        <v>72.17222222222222</v>
       </c>
       <c r="H17" t="n">
-        <v>72.76869444444444</v>
+        <v>72.43313888888889</v>
       </c>
       <c r="I17" t="n">
-        <v>66.23947222222222</v>
+        <v>66.24863888888889</v>
       </c>
       <c r="J17" t="n">
-        <v>28.09772222222222</v>
+        <v>27.90205555555555</v>
       </c>
       <c r="K17" t="n">
-        <v>153.5498055555555</v>
+        <v>152.7597777777778</v>
       </c>
       <c r="L17" t="n">
-        <v>7226.979</v>
+        <v>7166.689888888889</v>
       </c>
       <c r="M17" t="n">
         <v>12.44411764705882</v>
@@ -1269,31 +1269,31 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>9.661111111111111</v>
+        <v>9.75</v>
       </c>
       <c r="E18" t="n">
-        <v>32.02222222222222</v>
+        <v>32.26666666666667</v>
       </c>
       <c r="F18" t="n">
-        <v>22.36111111111111</v>
+        <v>22.51666666666667</v>
       </c>
       <c r="G18" t="n">
-        <v>122.9666666666667</v>
+        <v>121.7990740740741</v>
       </c>
       <c r="H18" t="n">
-        <v>122.2441666666667</v>
+        <v>121.0353703703704</v>
       </c>
       <c r="I18" t="n">
-        <v>111.3176666666667</v>
+        <v>110.1500092592593</v>
       </c>
       <c r="J18" t="n">
-        <v>52.30216666666666</v>
+        <v>51.7027037037037</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6688333333333</v>
+        <v>143.8551759259259</v>
       </c>
       <c r="L18" t="n">
-        <v>14414.89663888889</v>
+        <v>14235.18957407407</v>
       </c>
       <c r="M18" t="n">
         <v>12.44411764705882</v>
@@ -1316,31 +1316,31 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>10.16851851851852</v>
+        <v>10.23888888888889</v>
       </c>
       <c r="E19" t="n">
-        <v>30.30555555555556</v>
+        <v>30.26111111111111</v>
       </c>
       <c r="F19" t="n">
-        <v>20.13703703703704</v>
+        <v>20.02222222222222</v>
       </c>
       <c r="G19" t="n">
-        <v>119.6296296296296</v>
+        <v>119.0851851851852</v>
       </c>
       <c r="H19" t="n">
-        <v>119.4466851851852</v>
+        <v>118.9094259259259</v>
       </c>
       <c r="I19" t="n">
-        <v>109.3258981481482</v>
+        <v>108.7774537037037</v>
       </c>
       <c r="J19" t="n">
-        <v>46.04016666666666</v>
+        <v>45.87509259259259</v>
       </c>
       <c r="K19" t="n">
-        <v>121.2216944444444</v>
+        <v>121.4469722222222</v>
       </c>
       <c r="L19" t="n">
-        <v>10485.57519444444</v>
+        <v>10453.55340740741</v>
       </c>
       <c r="M19" t="n">
         <v>12.44411764705882</v>

--- a/Analyzer Results/RESULTS_MTT_MERGED_EXP.xlsx
+++ b/Analyzer Results/RESULTS_MTT_MERGED_EXP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,11 +494,6 @@
           <t>AUC</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -543,9 +538,6 @@
       <c r="L2" t="n">
         <v>5032.431675925926</v>
       </c>
-      <c r="M2" t="n">
-        <v>8.425882352941176</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -590,9 +582,6 @@
       <c r="L3" t="n">
         <v>9357.631583333334</v>
       </c>
-      <c r="M3" t="n">
-        <v>8.425882352941176</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -637,9 +626,6 @@
       <c r="L4" t="n">
         <v>8805.802685185185</v>
       </c>
-      <c r="M4" t="n">
-        <v>8.425882352941176</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -684,9 +670,6 @@
       <c r="L5" t="n">
         <v>7612.583185185185</v>
       </c>
-      <c r="M5" t="n">
-        <v>6.538235294117647</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -731,9 +714,6 @@
       <c r="L6" t="n">
         <v>14732.97852777778</v>
       </c>
-      <c r="M6" t="n">
-        <v>6.538235294117647</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -778,9 +758,6 @@
       <c r="L7" t="n">
         <v>10593.61003703704</v>
       </c>
-      <c r="M7" t="n">
-        <v>6.538235294117647</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -825,9 +802,6 @@
       <c r="L8" t="n">
         <v>13441.77800925926</v>
       </c>
-      <c r="M8" t="n">
-        <v>6.354117647058823</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -872,9 +846,6 @@
       <c r="L9" t="n">
         <v>27749.15272222222</v>
       </c>
-      <c r="M9" t="n">
-        <v>6.354117647058823</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -919,9 +890,6 @@
       <c r="L10" t="n">
         <v>11409.86925</v>
       </c>
-      <c r="M10" t="n">
-        <v>6.354117647058823</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -966,9 +934,6 @@
       <c r="L11" t="n">
         <v>14436.53362037037</v>
       </c>
-      <c r="M11" t="n">
-        <v>11.51588235294118</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1013,9 +978,6 @@
       <c r="L12" t="n">
         <v>15657.55008333333</v>
       </c>
-      <c r="M12" t="n">
-        <v>11.51588235294118</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1060,9 +1022,6 @@
       <c r="L13" t="n">
         <v>20525.99299074074</v>
       </c>
-      <c r="M13" t="n">
-        <v>11.51588235294118</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1107,9 +1066,6 @@
       <c r="L14" t="n">
         <v>9157.268592592593</v>
       </c>
-      <c r="M14" t="n">
-        <v>9.131764705882354</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1154,9 +1110,6 @@
       <c r="L15" t="n">
         <v>8859.991944444446</v>
       </c>
-      <c r="M15" t="n">
-        <v>9.131764705882354</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1201,9 +1154,6 @@
       <c r="L16" t="n">
         <v>9208.361268518518</v>
       </c>
-      <c r="M16" t="n">
-        <v>9.131764705882354</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1248,9 +1198,6 @@
       <c r="L17" t="n">
         <v>7166.689888888889</v>
       </c>
-      <c r="M17" t="n">
-        <v>12.44411764705882</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1295,9 +1242,6 @@
       <c r="L18" t="n">
         <v>14235.18957407407</v>
       </c>
-      <c r="M18" t="n">
-        <v>12.44411764705882</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1341,9 +1285,6 @@
       </c>
       <c r="L19" t="n">
         <v>10453.55340740741</v>
-      </c>
-      <c r="M19" t="n">
-        <v>12.44411764705882</v>
       </c>
     </row>
   </sheetData>

--- a/Analyzer Results/RESULTS_MTT_MERGED_EXP.xlsx
+++ b/Analyzer Results/RESULTS_MTT_MERGED_EXP.xlsx
@@ -512,31 +512,31 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12.03148148148148</v>
+        <v>12.02222222222222</v>
       </c>
       <c r="E2" t="n">
-        <v>29.98703703703704</v>
+        <v>29.97222222222222</v>
       </c>
       <c r="F2" t="n">
-        <v>17.95555555555556</v>
+        <v>17.95</v>
       </c>
       <c r="G2" t="n">
-        <v>50.33703703703704</v>
+        <v>50.15000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>50.74924074074074</v>
+        <v>50.56438888888889</v>
       </c>
       <c r="I2" t="n">
-        <v>45.72635185185185</v>
+        <v>45.34330555555555</v>
       </c>
       <c r="J2" t="n">
-        <v>19.58528703703704</v>
+        <v>19.5305</v>
       </c>
       <c r="K2" t="n">
-        <v>153.2409907407407</v>
+        <v>153.9534722222222</v>
       </c>
       <c r="L2" t="n">
-        <v>5032.431675925926</v>
+        <v>5027.915722222222</v>
       </c>
     </row>
     <row r="3">
@@ -556,31 +556,31 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>11.33333333333333</v>
+        <v>11.3037037037037</v>
       </c>
       <c r="E3" t="n">
-        <v>30.35925925925926</v>
+        <v>30.33888888888889</v>
       </c>
       <c r="F3" t="n">
-        <v>19.02592592592593</v>
+        <v>19.03518518518518</v>
       </c>
       <c r="G3" t="n">
-        <v>82.46851851851852</v>
+        <v>81.98425925925926</v>
       </c>
       <c r="H3" t="n">
-        <v>82.53874999999999</v>
+        <v>82.04214814814814</v>
       </c>
       <c r="I3" t="n">
-        <v>73.73722222222221</v>
+        <v>73.44992592592592</v>
       </c>
       <c r="J3" t="n">
-        <v>33.00652777777778</v>
+        <v>32.85005555555556</v>
       </c>
       <c r="K3" t="n">
-        <v>155.0134351851852</v>
+        <v>156.9860740740741</v>
       </c>
       <c r="L3" t="n">
-        <v>9357.631583333334</v>
+        <v>9333.02887037037</v>
       </c>
     </row>
     <row r="4">
@@ -600,31 +600,31 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>11.67592592592593</v>
+        <v>11.68333333333333</v>
       </c>
       <c r="E4" t="n">
-        <v>31.34444444444445</v>
+        <v>31.48703703703704</v>
       </c>
       <c r="F4" t="n">
-        <v>19.66851851851852</v>
+        <v>19.8037037037037</v>
       </c>
       <c r="G4" t="n">
-        <v>66.48148148148148</v>
+        <v>66.84907407407407</v>
       </c>
       <c r="H4" t="n">
-        <v>66.71621296296297</v>
+        <v>67.10026851851852</v>
       </c>
       <c r="I4" t="n">
-        <v>59.56551851851852</v>
+        <v>60.08478703703703</v>
       </c>
       <c r="J4" t="n">
-        <v>27.8747962962963</v>
+        <v>27.93414814814815</v>
       </c>
       <c r="K4" t="n">
-        <v>204.5309351851852</v>
+        <v>204.5682685185185</v>
       </c>
       <c r="L4" t="n">
-        <v>8805.802685185185</v>
+        <v>8798.300546296297</v>
       </c>
     </row>
     <row r="5">
@@ -644,31 +644,31 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>11.27407407407407</v>
+        <v>11.27777777777778</v>
       </c>
       <c r="E5" t="n">
-        <v>30.62962962962963</v>
+        <v>30.65555555555555</v>
       </c>
       <c r="F5" t="n">
-        <v>19.35555555555555</v>
+        <v>19.37777777777778</v>
       </c>
       <c r="G5" t="n">
-        <v>67.47222222222223</v>
+        <v>67.20555555555556</v>
       </c>
       <c r="H5" t="n">
-        <v>67.80563888888888</v>
+        <v>67.55897222222222</v>
       </c>
       <c r="I5" t="n">
-        <v>59.19708333333332</v>
+        <v>59.03819444444444</v>
       </c>
       <c r="J5" t="n">
-        <v>27.705</v>
+        <v>27.45466666666666</v>
       </c>
       <c r="K5" t="n">
-        <v>163.8527962962963</v>
+        <v>162.8410555555556</v>
       </c>
       <c r="L5" t="n">
-        <v>7612.583185185185</v>
+        <v>7508.073027777778</v>
       </c>
     </row>
     <row r="6">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9.405555555555557</v>
+        <v>9.459259259259261</v>
       </c>
       <c r="E6" t="n">
-        <v>30.18333333333333</v>
+        <v>30.17777777777778</v>
       </c>
       <c r="F6" t="n">
-        <v>20.77777777777778</v>
+        <v>20.71851851851852</v>
       </c>
       <c r="G6" t="n">
-        <v>114.6388888888889</v>
+        <v>114.0638888888889</v>
       </c>
       <c r="H6" t="n">
-        <v>114.7929444444445</v>
+        <v>114.2151944444444</v>
       </c>
       <c r="I6" t="n">
-        <v>100.9899722222222</v>
+        <v>100.4224537037037</v>
       </c>
       <c r="J6" t="n">
-        <v>48.72497222222222</v>
+        <v>48.37812962962963</v>
       </c>
       <c r="K6" t="n">
-        <v>177.2313055555556</v>
+        <v>176.8305740740741</v>
       </c>
       <c r="L6" t="n">
-        <v>14732.97852777778</v>
+        <v>14621.79834259259</v>
       </c>
     </row>
     <row r="7">
@@ -732,31 +732,31 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10.28333333333333</v>
+        <v>10.32407407407407</v>
       </c>
       <c r="E7" t="n">
-        <v>31.44259259259259</v>
+        <v>31.63518518518518</v>
       </c>
       <c r="F7" t="n">
-        <v>21.15925925925926</v>
+        <v>21.31111111111111</v>
       </c>
       <c r="G7" t="n">
-        <v>97.59537037037038</v>
+        <v>99.12037037037038</v>
       </c>
       <c r="H7" t="n">
-        <v>97.83666666666666</v>
+        <v>99.34892592592593</v>
       </c>
       <c r="I7" t="n">
-        <v>87.62231481481481</v>
+        <v>88.98518518518519</v>
       </c>
       <c r="J7" t="n">
-        <v>39.82542592592593</v>
+        <v>40.64285185185185</v>
       </c>
       <c r="K7" t="n">
-        <v>143.6508148148148</v>
+        <v>145.1042222222222</v>
       </c>
       <c r="L7" t="n">
-        <v>10593.61003703704</v>
+        <v>10822.44786111111</v>
       </c>
     </row>
     <row r="8">
@@ -776,31 +776,31 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>11.13333333333333</v>
+        <v>11.07222222222222</v>
       </c>
       <c r="E8" t="n">
-        <v>30.10555555555555</v>
+        <v>30.01111111111111</v>
       </c>
       <c r="F8" t="n">
-        <v>18.97222222222222</v>
+        <v>18.93888888888889</v>
       </c>
       <c r="G8" t="n">
-        <v>121.1759259259259</v>
+        <v>123.8351851851852</v>
       </c>
       <c r="H8" t="n">
-        <v>120.9157592592592</v>
+        <v>123.5877037037037</v>
       </c>
       <c r="I8" t="n">
-        <v>111.5155925925926</v>
+        <v>113.6677407407407</v>
       </c>
       <c r="J8" t="n">
-        <v>49.48687037037038</v>
+        <v>50.61343518518518</v>
       </c>
       <c r="K8" t="n">
-        <v>152.8018148148148</v>
+        <v>150.8492407407408</v>
       </c>
       <c r="L8" t="n">
-        <v>13441.77800925926</v>
+        <v>13712.78072222222</v>
       </c>
     </row>
     <row r="9">
@@ -823,28 +823,28 @@
         <v>9.966666666666667</v>
       </c>
       <c r="E9" t="n">
-        <v>32.30555555555556</v>
+        <v>32.13888888888889</v>
       </c>
       <c r="F9" t="n">
-        <v>22.33888888888889</v>
+        <v>22.17222222222222</v>
       </c>
       <c r="G9" t="n">
-        <v>250.0083333333333</v>
+        <v>251.6518518518519</v>
       </c>
       <c r="H9" t="n">
-        <v>248.9875462962963</v>
+        <v>250.5898148148148</v>
       </c>
       <c r="I9" t="n">
-        <v>228.5743518518518</v>
+        <v>231.0211111111111</v>
       </c>
       <c r="J9" t="n">
-        <v>101.9356481481481</v>
+        <v>102.1112037037037</v>
       </c>
       <c r="K9" t="n">
-        <v>167.1688796296296</v>
+        <v>164.5025370370371</v>
       </c>
       <c r="L9" t="n">
-        <v>27749.15272222222</v>
+        <v>27733.00499074074</v>
       </c>
     </row>
     <row r="10">
@@ -864,31 +864,31 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>11.01481481481481</v>
+        <v>10.87592592592592</v>
       </c>
       <c r="E10" t="n">
-        <v>30.44814814814815</v>
+        <v>30.42037037037037</v>
       </c>
       <c r="F10" t="n">
-        <v>19.43333333333333</v>
+        <v>19.54444444444444</v>
       </c>
       <c r="G10" t="n">
-        <v>137.9518518518518</v>
+        <v>139.937962962963</v>
       </c>
       <c r="H10" t="n">
-        <v>137.780037037037</v>
+        <v>139.7641111111111</v>
       </c>
       <c r="I10" t="n">
-        <v>126.3372037037037</v>
+        <v>127.7126666666667</v>
       </c>
       <c r="J10" t="n">
-        <v>51.48825925925926</v>
+        <v>52.51946296296297</v>
       </c>
       <c r="K10" t="n">
-        <v>95.43833333333333</v>
+        <v>97.69907407407408</v>
       </c>
       <c r="L10" t="n">
-        <v>11409.86925</v>
+        <v>11767.41068518518</v>
       </c>
     </row>
     <row r="11">
@@ -908,31 +908,31 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>10.13148148148148</v>
+        <v>10.13888888888889</v>
       </c>
       <c r="E11" t="n">
-        <v>31.59259259259259</v>
+        <v>32.21481481481482</v>
       </c>
       <c r="F11" t="n">
-        <v>21.46111111111111</v>
+        <v>22.07592592592593</v>
       </c>
       <c r="G11" t="n">
-        <v>144.2157407407407</v>
+        <v>143.3435185185185</v>
       </c>
       <c r="H11" t="n">
-        <v>142.5429814814815</v>
+        <v>141.8036759259259</v>
       </c>
       <c r="I11" t="n">
-        <v>125.2787685185185</v>
+        <v>125.5410925925926</v>
       </c>
       <c r="J11" t="n">
-        <v>59.60402777777777</v>
+        <v>59.18602777777778</v>
       </c>
       <c r="K11" t="n">
-        <v>138.6452222222222</v>
+        <v>137.7861018518519</v>
       </c>
       <c r="L11" t="n">
-        <v>14436.53362037037</v>
+        <v>14239.41121296296</v>
       </c>
     </row>
     <row r="12">
@@ -952,31 +952,31 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10.03703703703704</v>
+        <v>10.05555555555556</v>
       </c>
       <c r="E12" t="n">
-        <v>31.26111111111111</v>
+        <v>31.76111111111111</v>
       </c>
       <c r="F12" t="n">
-        <v>21.22407407407407</v>
+        <v>21.70555555555556</v>
       </c>
       <c r="G12" t="n">
-        <v>215.7111111111111</v>
+        <v>216.7611111111111</v>
       </c>
       <c r="H12" t="n">
-        <v>215.2489537037037</v>
+        <v>215.9999722222222</v>
       </c>
       <c r="I12" t="n">
-        <v>188.1889259259259</v>
+        <v>189.55775</v>
       </c>
       <c r="J12" t="n">
-        <v>76.57612037037036</v>
+        <v>77.4393888888889</v>
       </c>
       <c r="K12" t="n">
-        <v>68.41792592592593</v>
+        <v>69.07636111111111</v>
       </c>
       <c r="L12" t="n">
-        <v>15657.55008333333</v>
+        <v>15780.26272222222</v>
       </c>
     </row>
     <row r="13">
@@ -999,28 +999,28 @@
         <v>10.04444444444444</v>
       </c>
       <c r="E13" t="n">
-        <v>30.05925925925926</v>
+        <v>30.16111111111111</v>
       </c>
       <c r="F13" t="n">
-        <v>20.01481481481481</v>
+        <v>20.11666666666667</v>
       </c>
       <c r="G13" t="n">
-        <v>185.3935185185185</v>
+        <v>184.6898148148148</v>
       </c>
       <c r="H13" t="n">
-        <v>185.4082685185185</v>
+        <v>184.6941481481481</v>
       </c>
       <c r="I13" t="n">
-        <v>165.373</v>
+        <v>164.7086481481482</v>
       </c>
       <c r="J13" t="n">
-        <v>76.59121296296297</v>
+        <v>76.14412962962963</v>
       </c>
       <c r="K13" t="n">
-        <v>163.3383888888889</v>
+        <v>161.3433888888889</v>
       </c>
       <c r="L13" t="n">
-        <v>20525.99299074074</v>
+        <v>20323.01669444445</v>
       </c>
     </row>
     <row r="14">
@@ -1040,31 +1040,31 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10.37777777777778</v>
+        <v>10.36666666666667</v>
       </c>
       <c r="E14" t="n">
-        <v>30.44259259259259</v>
+        <v>30.74814814814815</v>
       </c>
       <c r="F14" t="n">
-        <v>20.06481481481482</v>
+        <v>20.38148148148148</v>
       </c>
       <c r="G14" t="n">
-        <v>104.7324074074074</v>
+        <v>105.9212962962963</v>
       </c>
       <c r="H14" t="n">
-        <v>104.9064351851852</v>
+        <v>106.0883518518519</v>
       </c>
       <c r="I14" t="n">
-        <v>96.13342592592592</v>
+        <v>97.25192592592593</v>
       </c>
       <c r="J14" t="n">
-        <v>40.19326851851852</v>
+        <v>40.78643518518518</v>
       </c>
       <c r="K14" t="n">
-        <v>117.0173981481482</v>
+        <v>116.863537037037</v>
       </c>
       <c r="L14" t="n">
-        <v>9157.268592592593</v>
+        <v>9238.739981481482</v>
       </c>
     </row>
     <row r="15">
@@ -1087,28 +1087,28 @@
         <v>11.23148148148148</v>
       </c>
       <c r="E15" t="n">
-        <v>26.05185185185185</v>
+        <v>26.13703703703704</v>
       </c>
       <c r="F15" t="n">
-        <v>14.82037037037037</v>
+        <v>14.90555555555556</v>
       </c>
       <c r="G15" t="n">
-        <v>96.87777777777778</v>
+        <v>99.17129629629629</v>
       </c>
       <c r="H15" t="n">
-        <v>97.15475925925927</v>
+        <v>99.44838888888889</v>
       </c>
       <c r="I15" t="n">
-        <v>88.11875000000001</v>
+        <v>90.20940740740741</v>
       </c>
       <c r="J15" t="n">
-        <v>35.69441666666667</v>
+        <v>36.2442037037037</v>
       </c>
       <c r="K15" t="n">
-        <v>119.8397685185185</v>
+        <v>117.0621759259259</v>
       </c>
       <c r="L15" t="n">
-        <v>8859.991944444446</v>
+        <v>8837.139092592592</v>
       </c>
     </row>
     <row r="16">
@@ -1128,31 +1128,31 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>9.994444444444445</v>
+        <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>28.71111111111111</v>
+        <v>28.92592592592592</v>
       </c>
       <c r="F16" t="n">
-        <v>18.71666666666667</v>
+        <v>18.92592592592593</v>
       </c>
       <c r="G16" t="n">
-        <v>148.0712962962963</v>
+        <v>151.0166666666667</v>
       </c>
       <c r="H16" t="n">
-        <v>148.2752222222222</v>
+        <v>151.2216944444444</v>
       </c>
       <c r="I16" t="n">
-        <v>136.7262222222222</v>
+        <v>139.4710925925926</v>
       </c>
       <c r="J16" t="n">
-        <v>45.42023148148148</v>
+        <v>46.34986111111111</v>
       </c>
       <c r="K16" t="n">
-        <v>62.91313888888889</v>
+        <v>60.95931481481481</v>
       </c>
       <c r="L16" t="n">
-        <v>9208.361268518518</v>
+        <v>9303.403685185185</v>
       </c>
     </row>
     <row r="17">
@@ -1172,31 +1172,31 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>11.45</v>
+        <v>11.41666666666667</v>
       </c>
       <c r="E17" t="n">
-        <v>30.15</v>
+        <v>30.14444444444445</v>
       </c>
       <c r="F17" t="n">
-        <v>18.7</v>
+        <v>18.72777777777778</v>
       </c>
       <c r="G17" t="n">
-        <v>72.17222222222222</v>
+        <v>72.50555555555555</v>
       </c>
       <c r="H17" t="n">
-        <v>72.43313888888889</v>
+        <v>72.76869444444444</v>
       </c>
       <c r="I17" t="n">
-        <v>66.24863888888889</v>
+        <v>66.23947222222222</v>
       </c>
       <c r="J17" t="n">
-        <v>27.90205555555555</v>
+        <v>28.09772222222222</v>
       </c>
       <c r="K17" t="n">
-        <v>152.7597777777778</v>
+        <v>153.5498055555555</v>
       </c>
       <c r="L17" t="n">
-        <v>7166.689888888889</v>
+        <v>7226.979</v>
       </c>
     </row>
     <row r="18">
@@ -1216,31 +1216,31 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>9.75</v>
+        <v>9.661111111111111</v>
       </c>
       <c r="E18" t="n">
-        <v>32.26666666666667</v>
+        <v>32.02222222222222</v>
       </c>
       <c r="F18" t="n">
-        <v>22.51666666666667</v>
+        <v>22.36111111111111</v>
       </c>
       <c r="G18" t="n">
-        <v>121.7990740740741</v>
+        <v>122.9666666666667</v>
       </c>
       <c r="H18" t="n">
-        <v>121.0353703703704</v>
+        <v>122.2441666666667</v>
       </c>
       <c r="I18" t="n">
-        <v>110.1500092592593</v>
+        <v>111.3176666666667</v>
       </c>
       <c r="J18" t="n">
-        <v>51.7027037037037</v>
+        <v>52.30216666666666</v>
       </c>
       <c r="K18" t="n">
-        <v>143.8551759259259</v>
+        <v>144.6688333333333</v>
       </c>
       <c r="L18" t="n">
-        <v>14235.18957407407</v>
+        <v>14414.89663888889</v>
       </c>
     </row>
     <row r="19">
@@ -1260,31 +1260,31 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>10.23888888888889</v>
+        <v>10.16851851851852</v>
       </c>
       <c r="E19" t="n">
-        <v>30.26111111111111</v>
+        <v>30.30555555555556</v>
       </c>
       <c r="F19" t="n">
-        <v>20.02222222222222</v>
+        <v>20.13703703703704</v>
       </c>
       <c r="G19" t="n">
-        <v>119.0851851851852</v>
+        <v>119.6296296296296</v>
       </c>
       <c r="H19" t="n">
-        <v>118.9094259259259</v>
+        <v>119.4466851851852</v>
       </c>
       <c r="I19" t="n">
-        <v>108.7774537037037</v>
+        <v>109.3258981481482</v>
       </c>
       <c r="J19" t="n">
-        <v>45.87509259259259</v>
+        <v>46.04016666666666</v>
       </c>
       <c r="K19" t="n">
-        <v>121.4469722222222</v>
+        <v>121.2216944444444</v>
       </c>
       <c r="L19" t="n">
-        <v>10453.55340740741</v>
+        <v>10485.57519444444</v>
       </c>
     </row>
   </sheetData>
